--- a/data_year/zb/教育/各级各类学校专任教师数.xlsx
+++ b/data_year/zb/教育/各级各类学校专任教师数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,619 +478,363 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328.7</v>
+        <v>352.5</v>
       </c>
       <c r="C2" t="n">
-        <v>85.59999999999999</v>
+        <v>114.4</v>
       </c>
       <c r="D2" t="n">
-        <v>400.5</v>
+        <v>504.1576</v>
       </c>
       <c r="E2" t="n">
-        <v>586</v>
+        <v>561.7</v>
       </c>
       <c r="F2" t="n">
-        <v>75.7</v>
+        <v>151.8</v>
       </c>
       <c r="G2" t="n">
-        <v>46.3</v>
+        <v>134.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>32</v>
+        <v>30.8948</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.6</v>
+        <v>352.4517</v>
       </c>
       <c r="C3" t="n">
-        <v>54.6</v>
+        <v>131.6</v>
       </c>
       <c r="D3" t="n">
-        <v>418.84</v>
+        <v>507.9805</v>
       </c>
       <c r="E3" t="n">
-        <v>579.8</v>
+        <v>560.5</v>
       </c>
       <c r="F3" t="n">
-        <v>84</v>
+        <v>155.7</v>
       </c>
       <c r="G3" t="n">
-        <v>53.2</v>
+        <v>139.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>30.59</v>
+        <v>31.7013</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.8</v>
+        <v>350.4</v>
       </c>
       <c r="C4" t="n">
-        <v>57.1</v>
+        <v>147.9</v>
       </c>
       <c r="D4" t="n">
-        <v>437.63</v>
+        <v>509.9</v>
       </c>
       <c r="E4" t="n">
-        <v>577.9</v>
+        <v>558.5476</v>
       </c>
       <c r="F4" t="n">
-        <v>94.59999999999999</v>
+        <v>159.5</v>
       </c>
       <c r="G4" t="n">
-        <v>61.8</v>
+        <v>144</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>31.01</v>
-      </c>
+        <v>4.4</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.8</v>
+        <v>348.1</v>
       </c>
       <c r="C5" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>453.7</v>
-      </c>
+        <v>166.3</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>570.3</v>
+        <v>558.5</v>
       </c>
       <c r="F5" t="n">
-        <v>107.1</v>
+        <v>162.9</v>
       </c>
       <c r="G5" t="n">
-        <v>72.5</v>
+        <v>149.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>28.9</v>
-      </c>
+        <v>4.6</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>350.0464</v>
+        <v>348.8</v>
       </c>
       <c r="C6" t="n">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>466.8</v>
-      </c>
+        <v>184.4</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>562.9</v>
+        <v>563.4</v>
       </c>
       <c r="F6" t="n">
-        <v>119.1</v>
+        <v>166.3</v>
       </c>
       <c r="G6" t="n">
-        <v>85.8</v>
+        <v>153.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>29.4</v>
-      </c>
+        <v>4.8</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.2</v>
+        <v>347.6</v>
       </c>
       <c r="C7" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>477.1299</v>
-      </c>
+        <v>205.1</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>559.2453</v>
+        <v>568.5</v>
       </c>
       <c r="F7" t="n">
-        <v>129.946</v>
+        <v>169.5</v>
       </c>
       <c r="G7" t="n">
-        <v>96.59999999999999</v>
+        <v>157.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30.2739</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>347.5</v>
+        <v>348.8</v>
       </c>
       <c r="C8" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="D8" t="n">
-        <v>485.1</v>
-      </c>
+        <v>223.2</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>558.8</v>
+        <v>578.9</v>
       </c>
       <c r="F8" t="n">
-        <v>138.7</v>
+        <v>173.3</v>
       </c>
       <c r="G8" t="n">
-        <v>107.6</v>
+        <v>160.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>30.7</v>
-      </c>
+        <v>5.3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>347.3</v>
+        <v>354.9</v>
       </c>
       <c r="C9" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>490.74</v>
-      </c>
+        <v>243.2</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>561.3</v>
+        <v>594.5</v>
       </c>
       <c r="F9" t="n">
-        <v>144.3</v>
+        <v>177.4</v>
       </c>
       <c r="G9" t="n">
-        <v>116.8</v>
+        <v>163.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>31.7359</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>347.6</v>
+        <v>363.8999</v>
       </c>
       <c r="C10" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="D10" t="n">
-        <v>494.449</v>
-      </c>
+        <v>258.1363</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>562.2</v>
+        <v>609.1908</v>
       </c>
       <c r="F10" t="n">
-        <v>147.6</v>
+        <v>181.2584</v>
       </c>
       <c r="G10" t="n">
-        <v>123.7451</v>
+        <v>167.2753</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>32.626</v>
-      </c>
+        <v>5.8656</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>351.8</v>
+        <v>374.7429</v>
       </c>
       <c r="C11" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>500.6751</v>
-      </c>
+        <v>276.3104</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>563.3</v>
+        <v>626.9084</v>
       </c>
       <c r="F11" t="n">
-        <v>149.3</v>
+        <v>185.9242</v>
       </c>
       <c r="G11" t="n">
-        <v>129.5</v>
+        <v>174.0145</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>32.6082</v>
-      </c>
+        <v>6.2358</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>352.5</v>
+        <v>386.0741</v>
       </c>
       <c r="C12" t="n">
-        <v>114.4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>504.1576</v>
-      </c>
+        <v>291.3426</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>561.7</v>
+        <v>643.4178000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>151.8</v>
+        <v>193.3228</v>
       </c>
       <c r="G12" t="n">
-        <v>134.3</v>
+        <v>183.2982</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30.8948</v>
-      </c>
+        <v>6.6169</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>352.4517</v>
+        <v>397.1121</v>
       </c>
       <c r="C13" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>507.9805</v>
-      </c>
+        <v>319.0989</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>560.5</v>
+        <v>660.0799</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7</v>
+        <v>202.8341</v>
       </c>
       <c r="G13" t="n">
-        <v>139.3</v>
+        <v>186.5541</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>31.7013</v>
-      </c>
+        <v>6.9353</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>350.4</v>
+        <v>402.5197</v>
       </c>
       <c r="C14" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>509.9</v>
-      </c>
+        <v>324.4204</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>558.5476</v>
+        <v>662.9421</v>
       </c>
       <c r="F14" t="n">
-        <v>159.5</v>
+        <v>213.3159</v>
       </c>
       <c r="G14" t="n">
-        <v>144</v>
+        <v>196.3036</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>7.2714</v>
       </c>
       <c r="I14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>348.1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>166.3</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>558.5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>162.9</v>
-      </c>
-      <c r="G15" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>348.8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>184.4</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>563.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>166.3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>347.6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>205.1</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>568.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>157.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>348.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>223.2</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>578.9</v>
-      </c>
-      <c r="F18" t="n">
-        <v>173.3</v>
-      </c>
-      <c r="G18" t="n">
-        <v>160.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>354.9</v>
-      </c>
-      <c r="C19" t="n">
-        <v>243.2</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>594.5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>163.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>363.9</v>
-      </c>
-      <c r="C20" t="n">
-        <v>258.1</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>609.2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>181.3</v>
-      </c>
-      <c r="G20" t="n">
-        <v>167.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>374.7429</v>
-      </c>
-      <c r="C21" t="n">
-        <v>276.3104</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>626.9084</v>
-      </c>
-      <c r="F21" t="n">
-        <v>185.9242</v>
-      </c>
-      <c r="G21" t="n">
-        <v>174.0145</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6.2358</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>386.0741</v>
-      </c>
-      <c r="C22" t="n">
-        <v>291.3426</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>643.4178000000001</v>
-      </c>
-      <c r="F22" t="n">
-        <v>193.3228</v>
-      </c>
-      <c r="G22" t="n">
-        <v>183.2982</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6.6169</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
